--- a/medicine/Médecine vétérinaire/Équation_de_Henderson-Hasselbalch/Équation_de_Henderson-Hasselbalch.xlsx
+++ b/medicine/Médecine vétérinaire/Équation_de_Henderson-Hasselbalch/Équation_de_Henderson-Hasselbalch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89quation_de_Henderson-Hasselbalch</t>
+          <t>Équation_de_Henderson-Hasselbalch</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En chimie, l'équation de Henderson-Hasselbalch est une équation donnant le pH d'un système tamponné. Elle est notamment utilisée en physiologie et en médecine pour déterminer le pH sanguin à partir des concentrations en ion bicarbonate et en acide carbonique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89quation_de_Henderson-Hasselbalch</t>
+          <t>Équation_de_Henderson-Hasselbalch</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Formulation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'équation peut être obtenue à partir de la constante d'acidité 
           K
@@ -521,7 +535,7 @@
           H
           A
     {\displaystyle \mathrm {HA} }
-[1].
+.
           K
             a
         =
@@ -606,7 +620,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89quation_de_Henderson-Hasselbalch</t>
+          <t>Équation_de_Henderson-Hasselbalch</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -624,7 +638,9 @@
           <t>Application au pH du sang</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'équation de Henderson-Hasselbalch permet de calculer le pH sanguin à partir des concentrations en ion bicarbonate (
           H
@@ -684,8 +700,43 @@
           O
     {\displaystyle \mathrm {HCO_{3}^{-}+H^{+}\rightleftharpoons H_{2}CO_{3}{\xrightarrow {anhydrase~carbonique}}CO_{2}+H_{2}O} }
 Cette réaction est fortement déplacée vers la droite et catalysée par une enzyme plasmatique, l'anhydrase carbonique.
-Physiologie sanguine
-Le principal système tampon acido-basique dans un organisme mammifère est représenté par le couple acide carbonique/bicarbonate indiqué ci-dessus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Équation_de_Henderson-Hasselbalch</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89quation_de_Henderson-Hasselbalch</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Application au pH du sang</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Physiologie sanguine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le principal système tampon acido-basique dans un organisme mammifère est représenté par le couple acide carbonique/bicarbonate indiqué ci-dessus.
 On peut écrire pour celui-ci l'équation de Henderson-Hasselbalch, avec comme pKa celui de l'acide carbonique :
             p
               H
@@ -774,8 +825,43 @@
                         2
     {\displaystyle \mathrm {pH} _{\mathrm {sang} }=6,1+\log _{10}{\frac {\mathrm {[HCO_{3}^{-}]_{sang}} }{0,03\cdot P_{\mathrm {sang\;CO_{2}} }}}}
 Ainsi, le pH sanguin dépend de la bicarbonatémie (mesurée en mÉq/L) et de la pression partielle sanguine en dioxyde de carbone (mesurée en mmHg).
-Biologie médicale vétérinaire
-L'équation de Hendersen-Hasselbalch, très utilisée en soins intensifs et en réanimation vétérinaires, permet de corriger les déséquilibres acido-basiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Équation_de_Henderson-Hasselbalch</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89quation_de_Henderson-Hasselbalch</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Application au pH du sang</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Biologie médicale vétérinaire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'équation de Hendersen-Hasselbalch, très utilisée en soins intensifs et en réanimation vétérinaires, permet de corriger les déséquilibres acido-basiques.
 Valeurs usuelles, en moyenne, chez le chien et le chat :
 </t>
         </is>
